--- a/Assignment_may_8th/IMDB_MoviewRating.xlsx
+++ b/Assignment_may_8th/IMDB_MoviewRating.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,4250 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1. The Shawshank Redemption</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2. The Godfather</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3. The Dark Knight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4. The Godfather: Part II</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5. 12 Angry Men</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6. Schindler's List</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7. The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IMDb rating: 9.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8. Pulp Fiction</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9. The Lord of the Rings: The Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10. Il Buono, Il Brutto, Il Cattivo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11. Forrest Gump</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12. The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13. Fight Club</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14. Inception</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15. Star Wars: Episode V - The Empire Strikes Back</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16. The Matrix</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17. GoodFellas</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18. One Flew Over the Cuckoo's Nest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19. Se7en</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20. Interstellar</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21. It's a Wonderful Life</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22. Shichinin No Samurai</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23. The Silence of the Lambs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24. Saving Private Ryan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25. City of God</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26. Life Is Beautiful</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27. The Green Mile</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28. Dune: Part Two</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29. Terminator 2: Judgment Day</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30. Star Wars: Episode IV - A New Hope</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31. Back to the Future</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32. Spirited Away</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33. The Pianist</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34. Parasite</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35. Psycho</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36. Spider-man: Across the Spider-verse</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37. Gladiator</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38. The Lion King</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39. The Departed</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40. Léon</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41. American History X</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42. Whiplash</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43. The Prestige</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44. Grave of the Fireflies</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45. Seppuku</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.6</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46. The Usual Suspects</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47. Casablanca</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48. Intouchables</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49. Cinema Paradiso</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50. Modern Times</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51. Rear Window</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52. C'era Una Volta Il West</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53. Alien</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54. City Lights</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55. Django Unchained</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56. Apocalypse Now</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57. Memento</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58. 12th Fail</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.9</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59. WALL·E</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60. Raiders of the Lost Ark</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61. Das Leben der Anderen</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62. Sunset Blvd.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63. Avengers: Infinity War</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64. Paths of Glory</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65. Spider-Man: Into the Spider-Verse</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66. Witness for the Prosecution</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67. The Shining</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68. The Great Dictator</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69. Alien 2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70. Inglourious Basterds</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71. The Dark Knight Rises</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72. Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73. Coco</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74. American Beauty</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75. Oldeuboi</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76. Amadeus</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77. Toy Story</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78. Avengers: Endgame</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79. Das Boot</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80. Braveheart</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81. Good Will Hunting</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82. Mononoke-hime</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83. Joker</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84. Kimi No Na Wa.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85. Tengoku to Jigoku</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86. Once Upon a Time in America</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87. 3 Idiots</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88. Singin' in the Rain</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89. Capharnaüm</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90. Idi I Smotri</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.4</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91. Requiem for a Dream</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92. Toy Story 3</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93. Star Wars: Episode VI - Return of the Jedi</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94. Eternal Sunshine of the Spotless Mind</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95. Jagten</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96. 2001: A Space Odyssey</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97. Oppenheimer</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98. Reservoir Dogs</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99. Ikiru</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100. Lawrence of Arabia</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101. The Apartment</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102. Incendies</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103. North by Northwest</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104. Citizen Kane</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105. M - Eine Stadt sucht einen Mörder</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106. Vertigo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107. Scarface</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108. Double Indemnity</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109. Full Metal Jacket</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110. Le fabuleux destin d'Amélie Poulain</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111. Heat</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112. A Clockwork Orange</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113. Up</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114. To Kill a Mockingbird</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115. Jodaeiye Nader Az Simin</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116. The Sting</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117. Indiana Jones and the Last Crusade</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118. Die Hard</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119. Taare Zameen Par</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120. Metropolis</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121. Snatch</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122. Hamilton</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123. L.A. Confidential</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124. 1917</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125. Ladri Di Biciclette</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126. Taxi Driver</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127. Der Untergang</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128. Dangal</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129. Per qualche dollaro in più</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130. Batman Begins</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131. The Wolf of Wall Street</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132. Some Like It Hot</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133. Green Book</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134. The Kid</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135. The Father</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136. Judgment at Nuremberg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.3</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137. The Truman Show</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138. All About Eve</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139. Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140. Shutter Island</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141. There Will Be Blood</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142. Casino</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143. Jurassic Park</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144. Ran</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145. The Sixth Sense</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146. El Laberinto Del Fauno</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147. Unforgiven</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148. No Country for Old Men</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149. A Beautiful Mind</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150. The Thing</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151. Kill Bill: Vol. 1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152. The Treasure of the Sierra Madre</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153. Yojimbo</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154. Monty Python and the Holy Grail</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155. The Great Escape</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156. Finding Nemo</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157. Prisoners</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158. Rashōmon</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159. Hauru No Ugoku Shiro</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160. The Elephant Man</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161. Chinatown</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162. Dial M for Murder</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163. Gone with the Wind</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164. V for Vendetta</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165. Lock, Stock and Two Smoking Barrels</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166. El Secreto De Sus Ojos</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167. Inside Out</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168. Raging Bull</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169. Three Billboards Outside Ebbing, Missouri</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170. Trainspotting</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171. The Bridge on the River Kwai</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172. Klaus</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173. Fargo</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174. Spider-Man: No Way Home</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175. Catch Me If You Can</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176. Warrior</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177. Gran Torino</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178. My Neighbour Totoro</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179. Million Dollar Baby</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180. Harry Potter and the Deathly Hallows: Part 2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181. Bacheha-Ye Aseman</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182. 12 Years a Slave</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183. Blade Runner</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184. Ben-Hur</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185. Before Sunrise</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186. Barry Lyndon</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187. The Grand Budapest Hotel</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188. Gone Girl</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189. Hacksaw Ridge</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190. The Gold Rush</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191. Salinui Chueok</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192. In the Name of the Father</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193. Dead Poets Society</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194. Mad Max: Fury Road</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195. Relatos Salvajes</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196. The Deer Hunter</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197. The General</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198. Monsters, Inc.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199. On the Waterfront</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200. Sherlock Jr.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>201. Jaws</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202. How to Train Your Dragon</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>203. The Third Man</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>204. Le Salaire De La Peur</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>205. Mary and Max</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>206. Smultronstället</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>207. Mr. Smith Goes to Washington</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>208. Ratatouille</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>209. Ford v. Ferrari</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>210. Tokyo Story</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>211. The Big Lebowski</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>212. Room</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>213. Det Sjunde Inseglet</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>214. Rocky</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>215. Logan</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>216. Spotlight</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>217. Hotel Rwanda</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>218. The Terminator</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>219. Platoon</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>220. La passion de Jeanne d'Arc</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221. La haine</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>222. Before Sunset</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>223. The Best Years of Our Lives</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>224. Pirates of the Caribbean: The Curse of the Black Pearl</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>225. The Exorcist</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>226. Jai Bhim</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.7</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>227. Rush</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>228. Network</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>229. The Wizard of Oz</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>230. Stand by Me</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>231. The Incredibles</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.0</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>232. Hachi: A Dog's Tale</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>233. Ah-ga-ssi</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>234. Into the Wild</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>235. My Father and My Son</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>236. The Sound of Music</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>237. To Be or Not to Be</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>238. La battaglia di Algeri</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>239. Groundhog Day</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.0</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>240. The Grapes of Wrath</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>241. Amores perros</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>242. The Iron Giant</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>243. Rebecca</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>244. Cool Hand Luke</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>245. The Help</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>246. It Happened One Night</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>247. Dances with Wolves</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.0</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>248. Aladdin</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.0</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>249. Drishyam</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
           <t>250. Gangs of Wasseypur</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>IMDb rating: 8.2</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2012</t>
         </is>
       </c>
     </row>
